--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jag2-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jag2-Notch4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.97098566666667</v>
+        <v>20.002957</v>
       </c>
       <c r="H2">
-        <v>38.91295700000001</v>
+        <v>60.008871</v>
       </c>
       <c r="I2">
-        <v>0.7291028508134716</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="J2">
-        <v>0.7291028508134717</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N2">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O2">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P2">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q2">
-        <v>389.3962404943211</v>
+        <v>1223.318680929644</v>
       </c>
       <c r="R2">
-        <v>3504.56616444889</v>
+        <v>11009.8681283668</v>
       </c>
       <c r="S2">
-        <v>0.643780776395363</v>
+        <v>0.7372835966887606</v>
       </c>
       <c r="T2">
-        <v>0.6437807763953631</v>
+        <v>0.7372835966887606</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.97098566666667</v>
+        <v>20.002957</v>
       </c>
       <c r="H3">
-        <v>38.91295700000001</v>
+        <v>60.008871</v>
       </c>
       <c r="I3">
-        <v>0.7291028508134716</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="J3">
-        <v>0.7291028508134717</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.28081</v>
       </c>
       <c r="O3">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P3">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q3">
-        <v>18.50877505057445</v>
+        <v>28.54295278505666</v>
       </c>
       <c r="R3">
-        <v>166.57897545517</v>
+        <v>256.88657506551</v>
       </c>
       <c r="S3">
-        <v>0.03060017620370353</v>
+        <v>0.01720259096631449</v>
       </c>
       <c r="T3">
-        <v>0.03060017620370354</v>
+        <v>0.01720259096631449</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.97098566666667</v>
+        <v>20.002957</v>
       </c>
       <c r="H4">
-        <v>38.91295700000001</v>
+        <v>60.008871</v>
       </c>
       <c r="I4">
-        <v>0.7291028508134716</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="J4">
-        <v>0.7291028508134717</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N4">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O4">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P4">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q4">
-        <v>19.24789640315623</v>
+        <v>40.06472269358</v>
       </c>
       <c r="R4">
-        <v>173.2310676284061</v>
+        <v>360.58250424222</v>
       </c>
       <c r="S4">
-        <v>0.0318221502977817</v>
+        <v>0.02414666211539635</v>
       </c>
       <c r="T4">
-        <v>0.0318221502977817</v>
+        <v>0.02414666211539635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.97098566666667</v>
+        <v>20.002957</v>
       </c>
       <c r="H5">
-        <v>38.91295700000001</v>
+        <v>60.008871</v>
       </c>
       <c r="I5">
-        <v>0.7291028508134716</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="J5">
-        <v>0.7291028508134717</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N5">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O5">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P5">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q5">
-        <v>13.85110595710701</v>
+        <v>22.32194647857634</v>
       </c>
       <c r="R5">
-        <v>124.659953613963</v>
+        <v>200.897518307187</v>
       </c>
       <c r="S5">
-        <v>0.02289974791662333</v>
+        <v>0.01345324422930585</v>
       </c>
       <c r="T5">
-        <v>0.02289974791662333</v>
+        <v>0.01345324422930585</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.14344</v>
       </c>
       <c r="I6">
-        <v>0.05889789011308234</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="J6">
-        <v>0.05889789011308236</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N6">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O6">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P6">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q6">
-        <v>31.45594199432</v>
+        <v>64.08100686282665</v>
       </c>
       <c r="R6">
-        <v>283.10347794888</v>
+        <v>576.72906176544</v>
       </c>
       <c r="S6">
-        <v>0.05200546038565611</v>
+        <v>0.0386210690278662</v>
       </c>
       <c r="T6">
-        <v>0.05200546038565611</v>
+        <v>0.0386210690278662</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.14344</v>
       </c>
       <c r="I7">
-        <v>0.05889789011308234</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="J7">
-        <v>0.05889789011308236</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.28081</v>
       </c>
       <c r="O7">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P7">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q7">
         <v>1.495163265155555</v>
@@ -883,10 +883,10 @@
         <v>13.4564693864</v>
       </c>
       <c r="S7">
-        <v>0.002471922601147217</v>
+        <v>0.0009011219782347119</v>
       </c>
       <c r="T7">
-        <v>0.002471922601147218</v>
+        <v>0.0009011219782347118</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.14344</v>
       </c>
       <c r="I8">
-        <v>0.05889789011308234</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="J8">
-        <v>0.05889789011308236</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N8">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O8">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P8">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q8">
-        <v>1.554870463057778</v>
+        <v>2.098707237866667</v>
       </c>
       <c r="R8">
-        <v>13.99383416752</v>
+        <v>18.8883651408</v>
       </c>
       <c r="S8">
-        <v>0.002570635280481482</v>
+        <v>0.00126487271456951</v>
       </c>
       <c r="T8">
-        <v>0.002570635280481483</v>
+        <v>0.001264872714569509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.14344</v>
       </c>
       <c r="I9">
-        <v>0.05889789011308234</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="J9">
-        <v>0.05889789011308236</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N9">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O9">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P9">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q9">
-        <v>1.11891061144</v>
+        <v>1.169288777964445</v>
       </c>
       <c r="R9">
-        <v>10.07019550296</v>
+        <v>10.52359900168</v>
       </c>
       <c r="S9">
-        <v>0.001849871845797543</v>
+        <v>0.0007047202411151708</v>
       </c>
       <c r="T9">
-        <v>0.001849871845797543</v>
+        <v>0.0007047202411151707</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.458986333333333</v>
+        <v>2.298356333333333</v>
       </c>
       <c r="H10">
-        <v>7.376958999999999</v>
+        <v>6.895068999999999</v>
       </c>
       <c r="I10">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="J10">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N10">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O10">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P10">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q10">
-        <v>73.82014430002701</v>
+        <v>140.5603300551826</v>
       </c>
       <c r="R10">
-        <v>664.381298700243</v>
+        <v>1265.042970496644</v>
       </c>
       <c r="S10">
-        <v>0.1220453226532427</v>
+        <v>0.08471449615736273</v>
       </c>
       <c r="T10">
-        <v>0.1220453226532427</v>
+        <v>0.08471449615736273</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.458986333333333</v>
+        <v>2.298356333333333</v>
       </c>
       <c r="H11">
-        <v>7.376958999999999</v>
+        <v>6.895068999999999</v>
       </c>
       <c r="I11">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="J11">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.28081</v>
       </c>
       <c r="O11">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P11">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q11">
-        <v>3.508817761865555</v>
+        <v>3.279608925098888</v>
       </c>
       <c r="R11">
-        <v>31.57935985679</v>
+        <v>29.51648032589</v>
       </c>
       <c r="S11">
-        <v>0.005801056065913894</v>
+        <v>0.001976591955737929</v>
       </c>
       <c r="T11">
-        <v>0.005801056065913896</v>
+        <v>0.001976591955737929</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.458986333333333</v>
+        <v>2.298356333333333</v>
       </c>
       <c r="H12">
-        <v>7.376958999999999</v>
+        <v>6.895068999999999</v>
       </c>
       <c r="I12">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="J12">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N12">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O12">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P12">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q12">
-        <v>3.648937360435778</v>
+        <v>4.603469834286666</v>
       </c>
       <c r="R12">
-        <v>32.840436243922</v>
+        <v>41.43122850858</v>
       </c>
       <c r="S12">
-        <v>0.006032712909444874</v>
+        <v>0.002774471484480083</v>
       </c>
       <c r="T12">
-        <v>0.006032712909444875</v>
+        <v>0.002774471484480083</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.458986333333333</v>
+        <v>2.298356333333333</v>
       </c>
       <c r="H13">
-        <v>7.376958999999999</v>
+        <v>6.895068999999999</v>
       </c>
       <c r="I13">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="J13">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N13">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O13">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P13">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q13">
-        <v>2.625835933009</v>
+        <v>2.564810145888111</v>
       </c>
       <c r="R13">
-        <v>23.632523397081</v>
+        <v>23.083291312993</v>
       </c>
       <c r="S13">
-        <v>0.004341240412319878</v>
+        <v>0.001545788909025062</v>
       </c>
       <c r="T13">
-        <v>0.004341240412319878</v>
+        <v>0.001545788909025061</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.312552</v>
+        <v>1.904387</v>
       </c>
       <c r="H14">
-        <v>3.937656</v>
+        <v>5.713160999999999</v>
       </c>
       <c r="I14">
-        <v>0.07377892703252469</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="J14">
-        <v>0.0737789270325247</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N14">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O14">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P14">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q14">
-        <v>39.403544756568</v>
+        <v>116.466390085204</v>
       </c>
       <c r="R14">
-        <v>354.631902809112</v>
+        <v>1048.197510766836</v>
       </c>
       <c r="S14">
-        <v>0.06514506818019147</v>
+        <v>0.07019328676491775</v>
       </c>
       <c r="T14">
-        <v>0.06514506818019149</v>
+        <v>0.07019328676491775</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.312552</v>
+        <v>1.904387</v>
       </c>
       <c r="H15">
-        <v>3.937656</v>
+        <v>5.713160999999999</v>
       </c>
       <c r="I15">
-        <v>0.07377892703252469</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="J15">
-        <v>0.0737789270325247</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.28081</v>
       </c>
       <c r="O15">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P15">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q15">
-        <v>1.872928575706666</v>
+        <v>2.717439637823333</v>
       </c>
       <c r="R15">
-        <v>16.85635718136</v>
+        <v>24.45695674041</v>
       </c>
       <c r="S15">
-        <v>0.003096474200857324</v>
+        <v>0.001637777384742004</v>
       </c>
       <c r="T15">
-        <v>0.003096474200857325</v>
+        <v>0.001637777384742004</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.312552</v>
+        <v>1.904387</v>
       </c>
       <c r="H16">
-        <v>3.937656</v>
+        <v>5.713160999999999</v>
       </c>
       <c r="I16">
-        <v>0.07377892703252469</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="J16">
-        <v>0.0737789270325247</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N16">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O16">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P16">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q16">
-        <v>1.947721288805334</v>
+        <v>3.81437289778</v>
       </c>
       <c r="R16">
-        <v>17.529491599248</v>
+        <v>34.32935608002</v>
       </c>
       <c r="S16">
-        <v>0.003220127451454328</v>
+        <v>0.002298889580473193</v>
       </c>
       <c r="T16">
-        <v>0.003220127451454328</v>
+        <v>0.002298889580473193</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.312552</v>
+        <v>1.904387</v>
       </c>
       <c r="H17">
-        <v>3.937656</v>
+        <v>5.713160999999999</v>
       </c>
       <c r="I17">
-        <v>0.07377892703252469</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="J17">
-        <v>0.0737789270325247</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N17">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O17">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P17">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q17">
-        <v>1.401612590856</v>
+        <v>2.125167028479667</v>
       </c>
       <c r="R17">
-        <v>12.614513317704</v>
+        <v>19.126503256317</v>
       </c>
       <c r="S17">
-        <v>0.002317257200021559</v>
+        <v>0.001280819801698073</v>
       </c>
       <c r="T17">
-        <v>0.002317257200021559</v>
+        <v>0.001280819801698073</v>
       </c>
     </row>
   </sheetData>
